--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -5,97 +5,25 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\088134\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\216212\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="相談件数" sheetId="3" r:id="rId1"/>
+    <sheet name="相談件数" sheetId="9" r:id="rId1"/>
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$G$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$79</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>健康相談窓口（日別）</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>マドグチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>健康相談窓口（累計）</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>マドグチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ルイケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>帰国者・接触者
-相談センター（日別）</t>
-    <rPh sb="0" eb="3">
-      <t>キコクシャ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>セッショクシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>帰国者・接触者
-相談センター（累計）</t>
-    <rPh sb="0" eb="3">
-      <t>キコクシャ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>セッショクシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ルイケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>保健所・保健センター（日別）</t>
     <rPh sb="0" eb="3">
@@ -126,19 +54,76 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※健康相談窓口について、２/19までは土日祝日のみ受付。</t>
-    <rPh sb="25" eb="27">
-      <t>ウケツケ</t>
+    <t>新型コロナウイルス専用健康相談窓口
+（帰国者・接触者相談センター）/日別</t>
+    <rPh sb="0" eb="2">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ベツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※帰国者・接触者相談センターについては、2/6より開始。</t>
+    <t>新型コロナウイルス専用健康相談窓口
+（帰国者・接触者相談センター）/累計</t>
+    <rPh sb="0" eb="2">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ルイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※4/8より健康相談窓口と帰国者・接触者相談センターを統合</t>
+    <rPh sb="6" eb="8">
+      <t>ケンコウ</t>
+    </rPh>
     <rPh sb="8" eb="10">
       <t>ソウダン</t>
     </rPh>
-    <rPh sb="25" eb="27">
-      <t>カイシ</t>
+    <rPh sb="10" eb="12">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>キコクシャ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>セッショクシャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -147,6 +132,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,22 +160,13 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -211,11 +190,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,1662 +503,1274 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G74" sqref="G74"/>
+      <selection pane="bottomRight" activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="20.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.25" style="5" customWidth="1"/>
+    <col min="4" max="5" width="20.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>43857</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6"/>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
       <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
         <v>10</v>
       </c>
-      <c r="G2" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>43858</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7</v>
+      </c>
       <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>43859</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>82</v>
+      </c>
       <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>82</v>
-      </c>
-      <c r="G4" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>43860</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>113</v>
+      </c>
       <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>113</v>
-      </c>
-      <c r="G5" s="4">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>43861</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>89</v>
+      </c>
       <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>89</v>
-      </c>
-      <c r="G6" s="4">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>43862</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>34</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>34</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
       <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>43863</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>31</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>65</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
       <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4">
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>43864</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
         <v>65</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="4">
+        <v>74</v>
+      </c>
       <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>74</v>
-      </c>
-      <c r="G9" s="4">
         <v>379</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>43865</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
         <v>65</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="4">
+        <v>44</v>
+      </c>
       <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>44</v>
-      </c>
-      <c r="G10" s="4">
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>43866</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
         <v>65</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="4">
+        <v>29</v>
+      </c>
       <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>29</v>
-      </c>
-      <c r="G11" s="4">
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>43867</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4">
-        <v>65</v>
+      <c r="B12" s="5">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>76</v>
       </c>
       <c r="D12" s="4">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E12" s="4">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4">
-        <v>49</v>
-      </c>
-      <c r="G12" s="4">
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>43868</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4">
-        <v>65</v>
+      <c r="B13" s="5">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>85</v>
       </c>
       <c r="D13" s="4">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4">
-        <v>20</v>
-      </c>
-      <c r="F13" s="4">
-        <v>32</v>
-      </c>
-      <c r="G13" s="4">
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>43869</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
-        <v>78</v>
+      <c r="C14" s="5">
+        <v>98</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>20</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>43870</v>
       </c>
-      <c r="B15" s="4">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4">
-        <v>84</v>
+      <c r="B15" s="5">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>106</v>
       </c>
       <c r="D15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>22</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>43871</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4">
-        <v>84</v>
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5">
+        <v>111</v>
       </c>
       <c r="D16" s="4">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E16" s="4">
-        <v>27</v>
-      </c>
-      <c r="F16" s="4">
-        <v>24</v>
-      </c>
-      <c r="G16" s="4">
         <v>557</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>43872</v>
       </c>
-      <c r="B17" s="4">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4">
-        <v>92</v>
+      <c r="B17" s="5">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5">
+        <v>120</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>28</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
         <v>557</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>43873</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4">
-        <v>92</v>
+      <c r="B18" s="5">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
+        <v>126</v>
       </c>
       <c r="D18" s="4">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4">
-        <v>34</v>
-      </c>
-      <c r="F18" s="4">
-        <v>33</v>
-      </c>
-      <c r="G18" s="4">
         <v>590</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>43874</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4">
-        <v>92</v>
+      <c r="B19" s="5">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
+        <v>130</v>
       </c>
       <c r="D19" s="4">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E19" s="4">
-        <v>38</v>
-      </c>
-      <c r="F19" s="4">
-        <v>21</v>
-      </c>
-      <c r="G19" s="4">
         <v>611</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>43875</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4">
-        <v>92</v>
+      <c r="B20" s="5">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5">
+        <v>144</v>
       </c>
       <c r="D20" s="4">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4">
-        <v>52</v>
-      </c>
-      <c r="F20" s="4">
-        <v>60</v>
-      </c>
-      <c r="G20" s="4">
         <v>671</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>43876</v>
       </c>
-      <c r="B21" s="4">
-        <v>34</v>
-      </c>
-      <c r="C21" s="4">
-        <v>126</v>
+      <c r="B21" s="5">
+        <v>45</v>
+      </c>
+      <c r="C21" s="5">
+        <v>189</v>
       </c>
       <c r="D21" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4">
-        <v>63</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
         <v>671</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>43877</v>
       </c>
-      <c r="B22" s="4">
-        <v>27</v>
-      </c>
-      <c r="C22" s="4">
-        <v>153</v>
+      <c r="B22" s="5">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <v>229</v>
       </c>
       <c r="D22" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E22" s="4">
-        <v>76</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
         <v>671</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>43878</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4">
-        <v>153</v>
+      <c r="B23" s="5">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5">
+        <v>247</v>
       </c>
       <c r="D23" s="4">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="E23" s="4">
-        <v>94</v>
-      </c>
-      <c r="F23" s="4">
-        <v>82</v>
-      </c>
-      <c r="G23" s="4">
         <v>753</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>43879</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4">
-        <v>153</v>
+      <c r="B24" s="5">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5">
+        <v>280</v>
       </c>
       <c r="D24" s="4">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E24" s="4">
-        <v>127</v>
-      </c>
-      <c r="F24" s="4">
-        <v>71</v>
-      </c>
-      <c r="G24" s="4">
         <v>824</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>43880</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="4">
-        <v>153</v>
+      <c r="B25" s="5">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5">
+        <v>315</v>
       </c>
       <c r="D25" s="4">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E25" s="4">
-        <v>162</v>
-      </c>
-      <c r="F25" s="4">
-        <v>90</v>
-      </c>
-      <c r="G25" s="4">
         <v>914</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>43881</v>
       </c>
-      <c r="B26" s="4">
-        <v>23</v>
-      </c>
-      <c r="C26" s="4">
-        <v>176</v>
+      <c r="B26" s="5">
+        <v>49</v>
+      </c>
+      <c r="C26" s="5">
+        <v>364</v>
       </c>
       <c r="D26" s="4">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E26" s="4">
-        <v>188</v>
-      </c>
-      <c r="F26" s="4">
-        <v>53</v>
-      </c>
-      <c r="G26" s="4">
         <v>967</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>43882</v>
       </c>
-      <c r="B27" s="4">
-        <v>52</v>
-      </c>
-      <c r="C27" s="4">
-        <v>228</v>
+      <c r="B27" s="5">
+        <v>104</v>
+      </c>
+      <c r="C27" s="5">
+        <v>468</v>
       </c>
       <c r="D27" s="4">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E27" s="4">
-        <v>240</v>
-      </c>
-      <c r="F27" s="4">
-        <v>67</v>
-      </c>
-      <c r="G27" s="4">
         <v>1034</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>43883</v>
       </c>
-      <c r="B28" s="4">
-        <v>58</v>
-      </c>
-      <c r="C28" s="4">
-        <v>286</v>
+      <c r="B28" s="5">
+        <v>97</v>
+      </c>
+      <c r="C28" s="5">
+        <v>565</v>
       </c>
       <c r="D28" s="4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E28" s="4">
-        <v>279</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
         <v>1034</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>43884</v>
       </c>
-      <c r="B29" s="4">
-        <v>59</v>
-      </c>
-      <c r="C29" s="4">
-        <v>345</v>
+      <c r="B29" s="5">
+        <v>93</v>
+      </c>
+      <c r="C29" s="5">
+        <v>658</v>
       </c>
       <c r="D29" s="4">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E29" s="4">
-        <v>313</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
         <v>1034</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>43885</v>
       </c>
-      <c r="B30" s="4">
-        <v>87</v>
-      </c>
-      <c r="C30" s="4">
-        <v>432</v>
+      <c r="B30" s="5">
+        <v>143</v>
+      </c>
+      <c r="C30" s="5">
+        <v>801</v>
       </c>
       <c r="D30" s="4">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E30" s="4">
-        <v>369</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
         <v>1034</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>43886</v>
       </c>
-      <c r="B31" s="4">
-        <v>68</v>
-      </c>
-      <c r="C31" s="4">
-        <v>500</v>
+      <c r="B31" s="5">
+        <v>148</v>
+      </c>
+      <c r="C31" s="5">
+        <v>949</v>
       </c>
       <c r="D31" s="4">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="E31" s="4">
-        <v>449</v>
-      </c>
-      <c r="F31" s="4">
-        <v>124</v>
-      </c>
-      <c r="G31" s="4">
         <v>1158</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>43887</v>
       </c>
-      <c r="B32" s="4">
-        <v>76</v>
-      </c>
-      <c r="C32" s="4">
-        <v>576</v>
+      <c r="B32" s="5">
+        <v>131</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1080</v>
       </c>
       <c r="D32" s="4">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E32" s="4">
-        <v>504</v>
-      </c>
-      <c r="F32" s="4">
-        <v>98</v>
-      </c>
-      <c r="G32" s="4">
         <v>1256</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>43888</v>
       </c>
-      <c r="B33" s="4">
-        <v>72</v>
-      </c>
-      <c r="C33" s="4">
-        <v>648</v>
+      <c r="B33" s="5">
+        <v>127</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1207</v>
       </c>
       <c r="D33" s="4">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E33" s="4">
-        <v>559</v>
-      </c>
-      <c r="F33" s="4">
-        <v>99</v>
-      </c>
-      <c r="G33" s="4">
         <v>1355</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>43889</v>
       </c>
-      <c r="B34" s="4">
-        <v>91</v>
-      </c>
-      <c r="C34" s="4">
-        <v>739</v>
+      <c r="B34" s="5">
+        <v>167</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1374</v>
       </c>
       <c r="D34" s="4">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E34" s="4">
-        <v>635</v>
-      </c>
-      <c r="F34" s="4">
-        <v>98</v>
-      </c>
-      <c r="G34" s="4">
         <v>1453</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>43890</v>
       </c>
-      <c r="B35" s="4">
-        <v>70</v>
-      </c>
-      <c r="C35" s="4">
-        <v>809</v>
+      <c r="B35" s="5">
+        <v>124</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1498</v>
       </c>
       <c r="D35" s="4">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4">
-        <v>689</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
         <v>1453</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>43891</v>
       </c>
-      <c r="B36" s="4">
-        <v>108</v>
-      </c>
-      <c r="C36" s="4">
-        <v>917</v>
+      <c r="B36" s="5">
+        <v>164</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1662</v>
       </c>
       <c r="D36" s="4">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4">
-        <v>745</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
         <v>1453</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>43892</v>
       </c>
-      <c r="B37" s="4">
-        <v>133</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1050</v>
+      <c r="B37" s="5">
+        <v>228</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1890</v>
       </c>
       <c r="D37" s="4">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="E37" s="4">
-        <v>840</v>
-      </c>
-      <c r="F37" s="4">
-        <v>130</v>
-      </c>
-      <c r="G37" s="4">
         <v>1583</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>43893</v>
       </c>
-      <c r="B38" s="4">
-        <v>151</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1201</v>
+      <c r="B38" s="5">
+        <v>279</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2169</v>
       </c>
       <c r="D38" s="4">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="E38" s="4">
-        <v>968</v>
-      </c>
-      <c r="F38" s="4">
-        <v>162</v>
-      </c>
-      <c r="G38" s="4">
         <v>1745</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>43894</v>
       </c>
-      <c r="B39" s="4">
-        <v>274</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1475</v>
+      <c r="B39" s="5">
+        <v>403</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2572</v>
       </c>
       <c r="D39" s="4">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E39" s="4">
-        <v>1097</v>
-      </c>
-      <c r="F39" s="4">
-        <v>142</v>
-      </c>
-      <c r="G39" s="4">
         <v>1887</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>43895</v>
       </c>
-      <c r="B40" s="4">
-        <v>172</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1647</v>
+      <c r="B40" s="5">
+        <v>280</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2852</v>
       </c>
       <c r="D40" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E40" s="4">
-        <v>1205</v>
-      </c>
-      <c r="F40" s="4">
-        <v>110</v>
-      </c>
-      <c r="G40" s="4">
         <v>1997</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>43896</v>
       </c>
-      <c r="B41" s="4">
-        <v>155</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1802</v>
+      <c r="B41" s="5">
+        <v>276</v>
+      </c>
+      <c r="C41" s="5">
+        <v>3128</v>
       </c>
       <c r="D41" s="4">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E41" s="4">
-        <v>1326</v>
-      </c>
-      <c r="F41" s="4">
-        <v>101</v>
-      </c>
-      <c r="G41" s="4">
         <v>2098</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>43897</v>
       </c>
-      <c r="B42" s="4">
-        <v>138</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1940</v>
+      <c r="B42" s="5">
+        <v>210</v>
+      </c>
+      <c r="C42" s="5">
+        <v>3338</v>
       </c>
       <c r="D42" s="4">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E42" s="4">
-        <v>1398</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
         <v>2098</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>43898</v>
       </c>
-      <c r="B43" s="4">
-        <v>140</v>
-      </c>
-      <c r="C43" s="4">
-        <v>2080</v>
+      <c r="B43" s="5">
+        <v>226</v>
+      </c>
+      <c r="C43" s="5">
+        <v>3564</v>
       </c>
       <c r="D43" s="4">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E43" s="4">
-        <v>1484</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4">
         <v>2098</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>43899</v>
       </c>
-      <c r="B44" s="4">
-        <v>326</v>
-      </c>
-      <c r="C44" s="4">
-        <v>2406</v>
+      <c r="B44" s="5">
+        <v>499</v>
+      </c>
+      <c r="C44" s="5">
+        <v>4063</v>
       </c>
       <c r="D44" s="4">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E44" s="4">
-        <v>1657</v>
-      </c>
-      <c r="F44" s="4">
-        <v>149</v>
-      </c>
-      <c r="G44" s="4">
         <v>2247</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>43900</v>
       </c>
-      <c r="B45" s="4">
-        <v>317</v>
-      </c>
-      <c r="C45" s="4">
-        <v>2723</v>
+      <c r="B45" s="5">
+        <v>517</v>
+      </c>
+      <c r="C45" s="5">
+        <v>4580</v>
       </c>
       <c r="D45" s="4">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="E45" s="4">
-        <v>1857</v>
-      </c>
-      <c r="F45" s="4">
-        <v>145</v>
-      </c>
-      <c r="G45" s="4">
         <v>2392</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>43901</v>
       </c>
-      <c r="B46" s="4">
-        <v>392</v>
-      </c>
-      <c r="C46" s="4">
-        <v>3115</v>
+      <c r="B46" s="5">
+        <v>526</v>
+      </c>
+      <c r="C46" s="5">
+        <v>5106</v>
       </c>
       <c r="D46" s="4">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E46" s="4">
-        <v>1991</v>
-      </c>
-      <c r="F46" s="4">
-        <v>140</v>
-      </c>
-      <c r="G46" s="4">
         <v>2532</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>43902</v>
       </c>
       <c r="B47" s="5">
-        <v>300</v>
-      </c>
-      <c r="C47" s="4">
-        <v>3415</v>
+        <v>437</v>
+      </c>
+      <c r="C47" s="5">
+        <v>5543</v>
       </c>
       <c r="D47" s="4">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E47" s="4">
-        <v>2128</v>
-      </c>
-      <c r="F47" s="4">
-        <v>94</v>
-      </c>
-      <c r="G47" s="4">
         <v>2626</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>43903</v>
       </c>
       <c r="B48" s="5">
-        <v>194</v>
-      </c>
-      <c r="C48" s="4">
-        <v>3609</v>
+        <v>351</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5894</v>
       </c>
       <c r="D48" s="4">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="E48" s="4">
-        <v>2285</v>
-      </c>
-      <c r="F48" s="4">
-        <v>91</v>
-      </c>
-      <c r="G48" s="4">
         <v>2717</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>43904</v>
       </c>
       <c r="B49" s="5">
-        <v>157</v>
-      </c>
-      <c r="C49" s="4">
-        <v>3766</v>
+        <v>287</v>
+      </c>
+      <c r="C49" s="5">
+        <v>6181</v>
       </c>
       <c r="D49" s="4">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E49" s="4">
-        <v>2415</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
         <v>2717</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>43905</v>
       </c>
       <c r="B50" s="5">
-        <v>164</v>
-      </c>
-      <c r="C50" s="4">
-        <v>3930</v>
+        <v>267</v>
+      </c>
+      <c r="C50" s="5">
+        <v>6448</v>
       </c>
       <c r="D50" s="4">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="E50" s="4">
-        <v>2518</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
         <v>2717</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>43906</v>
       </c>
       <c r="B51" s="5">
-        <v>216</v>
-      </c>
-      <c r="C51" s="4">
-        <v>4146</v>
+        <v>371</v>
+      </c>
+      <c r="C51" s="5">
+        <v>6819</v>
       </c>
       <c r="D51" s="4">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E51" s="4">
-        <v>2673</v>
-      </c>
-      <c r="F51" s="4">
-        <v>77</v>
-      </c>
-      <c r="G51" s="4">
         <v>2794</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>43907</v>
       </c>
       <c r="B52" s="5">
-        <v>169</v>
-      </c>
-      <c r="C52" s="4">
-        <v>4315</v>
+        <v>290</v>
+      </c>
+      <c r="C52" s="5">
+        <v>7109</v>
       </c>
       <c r="D52" s="4">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="E52" s="4">
-        <v>2794</v>
-      </c>
-      <c r="F52" s="4">
-        <v>144</v>
-      </c>
-      <c r="G52" s="4">
         <v>2938</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>43908</v>
       </c>
       <c r="B53" s="5">
-        <v>170</v>
-      </c>
-      <c r="C53" s="4">
-        <v>4485</v>
+        <v>280</v>
+      </c>
+      <c r="C53" s="5">
+        <v>7389</v>
       </c>
       <c r="D53" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E53" s="4">
-        <v>2904</v>
-      </c>
-      <c r="F53" s="4">
-        <v>100</v>
-      </c>
-      <c r="G53" s="4">
         <v>3038</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>43909</v>
       </c>
       <c r="B54" s="5">
-        <v>171</v>
-      </c>
-      <c r="C54" s="4">
-        <v>4656</v>
+        <v>282</v>
+      </c>
+      <c r="C54" s="5">
+        <v>7671</v>
       </c>
       <c r="D54" s="4">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E54" s="4">
-        <v>3015</v>
-      </c>
-      <c r="F54" s="4">
-        <v>70</v>
-      </c>
-      <c r="G54" s="4">
         <v>3108</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>43910</v>
       </c>
       <c r="B55" s="5">
-        <v>115</v>
-      </c>
-      <c r="C55" s="4">
-        <v>4771</v>
+        <v>207</v>
+      </c>
+      <c r="C55" s="5">
+        <v>7878</v>
       </c>
       <c r="D55" s="4">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E55" s="4">
-        <v>3107</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4">
         <v>3108</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>43911</v>
       </c>
       <c r="B56" s="5">
-        <v>127</v>
-      </c>
-      <c r="C56" s="4">
-        <v>4898</v>
+        <v>218</v>
+      </c>
+      <c r="C56" s="5">
+        <v>8096</v>
       </c>
       <c r="D56" s="4">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E56" s="4">
-        <v>3198</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0</v>
-      </c>
-      <c r="G56" s="4">
         <v>3108</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>43912</v>
       </c>
       <c r="B57" s="5">
-        <v>157</v>
-      </c>
-      <c r="C57" s="4">
-        <v>5055</v>
+        <v>235</v>
+      </c>
+      <c r="C57" s="5">
+        <v>8331</v>
       </c>
       <c r="D57" s="4">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E57" s="4">
-        <v>3276</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="4">
         <v>3108</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>43913</v>
       </c>
       <c r="B58" s="5">
-        <v>90</v>
-      </c>
-      <c r="C58" s="4">
-        <v>5145</v>
+        <v>238</v>
+      </c>
+      <c r="C58" s="5">
+        <v>8569</v>
       </c>
       <c r="D58" s="4">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="E58" s="4">
-        <v>3424</v>
-      </c>
-      <c r="F58" s="4">
-        <v>86</v>
-      </c>
-      <c r="G58" s="4">
         <v>3194</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>43914</v>
       </c>
       <c r="B59" s="5">
-        <v>156</v>
-      </c>
-      <c r="C59" s="4">
-        <v>5301</v>
+        <v>259</v>
+      </c>
+      <c r="C59" s="5">
+        <v>8828</v>
       </c>
       <c r="D59" s="4">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="E59" s="4">
-        <v>3527</v>
-      </c>
-      <c r="F59" s="4">
-        <v>55</v>
-      </c>
-      <c r="G59" s="4">
         <v>3249</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>43915</v>
       </c>
       <c r="B60" s="5">
-        <v>154</v>
-      </c>
-      <c r="C60" s="4">
-        <v>5455</v>
+        <v>261</v>
+      </c>
+      <c r="C60" s="5">
+        <v>9089</v>
       </c>
       <c r="D60" s="4">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="E60" s="4">
-        <v>3634</v>
-      </c>
-      <c r="F60" s="4">
-        <v>51</v>
-      </c>
-      <c r="G60" s="4">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>43916</v>
       </c>
       <c r="B61" s="5">
-        <v>227</v>
-      </c>
-      <c r="C61" s="4">
-        <v>5682</v>
+        <v>349</v>
+      </c>
+      <c r="C61" s="5">
+        <v>9438</v>
       </c>
       <c r="D61" s="4">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="E61" s="4">
-        <v>3756</v>
-      </c>
-      <c r="F61" s="4">
-        <v>37</v>
-      </c>
-      <c r="G61" s="4">
         <v>3337</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>43917</v>
       </c>
       <c r="B62" s="5">
-        <v>362</v>
-      </c>
-      <c r="C62" s="4">
-        <v>6044</v>
+        <v>535</v>
+      </c>
+      <c r="C62" s="5">
+        <v>9973</v>
       </c>
       <c r="D62" s="4">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="E62" s="4">
-        <v>3929</v>
-      </c>
-      <c r="F62" s="4">
-        <v>81</v>
-      </c>
-      <c r="G62" s="4">
         <v>3418</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>43918</v>
       </c>
       <c r="B63" s="5">
-        <v>253</v>
-      </c>
-      <c r="C63" s="4">
-        <v>6297</v>
+        <v>351</v>
+      </c>
+      <c r="C63" s="5">
+        <v>10324</v>
       </c>
       <c r="D63" s="4">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E63" s="4">
-        <v>4027</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="4">
         <v>3418</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>43919</v>
       </c>
       <c r="B64" s="5">
-        <v>254</v>
-      </c>
-      <c r="C64" s="4">
-        <v>6551</v>
+        <v>348</v>
+      </c>
+      <c r="C64" s="5">
+        <v>10672</v>
       </c>
       <c r="D64" s="4">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E64" s="4">
-        <v>4121</v>
-      </c>
-      <c r="F64" s="4">
-        <v>0</v>
-      </c>
-      <c r="G64" s="4">
         <v>3418</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>43920</v>
       </c>
       <c r="B65" s="5">
-        <v>501</v>
-      </c>
-      <c r="C65" s="4">
-        <v>7052</v>
+        <v>746</v>
+      </c>
+      <c r="C65" s="5">
+        <v>11388</v>
       </c>
       <c r="D65" s="4">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="E65" s="4">
-        <v>4336</v>
-      </c>
-      <c r="F65" s="4">
-        <v>141</v>
-      </c>
-      <c r="G65" s="4">
         <v>3559</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>43921</v>
       </c>
       <c r="B66" s="5">
-        <v>462</v>
-      </c>
-      <c r="C66" s="4">
-        <v>7514</v>
+        <v>668</v>
+      </c>
+      <c r="C66" s="5">
+        <v>12086</v>
       </c>
       <c r="D66" s="4">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="E66" s="4">
-        <v>4572</v>
-      </c>
-      <c r="F66" s="4">
-        <v>93</v>
-      </c>
-      <c r="G66" s="4">
         <v>3652</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>43922</v>
       </c>
       <c r="B67" s="5">
-        <v>485</v>
-      </c>
-      <c r="C67" s="4">
-        <v>7999</v>
+        <v>701</v>
+      </c>
+      <c r="C67" s="5">
+        <v>12787</v>
       </c>
       <c r="D67" s="4">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="E67" s="4">
-        <v>4788</v>
-      </c>
-      <c r="F67" s="4">
-        <v>156</v>
-      </c>
-      <c r="G67" s="4">
         <v>3808</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>43923</v>
       </c>
       <c r="B68" s="5">
-        <v>437</v>
-      </c>
-      <c r="C68" s="4">
-        <v>8436</v>
+        <v>655</v>
+      </c>
+      <c r="C68" s="5">
+        <v>13442</v>
       </c>
       <c r="D68" s="4">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="E68" s="4">
-        <v>5006</v>
-      </c>
-      <c r="F68" s="4">
-        <v>176</v>
-      </c>
-      <c r="G68" s="4">
         <v>3984</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>43924</v>
       </c>
       <c r="B69" s="5">
-        <v>465</v>
-      </c>
-      <c r="C69" s="4">
-        <v>8901</v>
+        <v>717</v>
+      </c>
+      <c r="C69" s="5">
+        <v>14159</v>
       </c>
       <c r="D69" s="4">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c r="E69" s="4">
-        <v>5258</v>
-      </c>
-      <c r="F69" s="4">
-        <v>134</v>
-      </c>
-      <c r="G69" s="4">
         <v>4118</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>43925</v>
       </c>
       <c r="B70" s="5">
-        <v>290</v>
-      </c>
-      <c r="C70" s="4">
-        <v>9191</v>
+        <v>461</v>
+      </c>
+      <c r="C70" s="5">
+        <v>14620</v>
       </c>
       <c r="D70" s="4">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="E70" s="4">
-        <v>5429</v>
-      </c>
-      <c r="F70" s="4">
-        <v>0</v>
-      </c>
-      <c r="G70" s="4">
         <v>4118</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>43926</v>
       </c>
       <c r="B71" s="5">
-        <v>401</v>
-      </c>
-      <c r="C71" s="4">
-        <v>9592</v>
+        <v>552</v>
+      </c>
+      <c r="C71" s="5">
+        <v>15172</v>
       </c>
       <c r="D71" s="4">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="E71" s="4">
-        <v>5580</v>
-      </c>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="4">
         <v>4118</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>43927</v>
       </c>
       <c r="B72" s="5">
-        <v>565</v>
-      </c>
-      <c r="C72" s="4">
-        <v>10157</v>
+        <v>838</v>
+      </c>
+      <c r="C72" s="5">
+        <v>16010</v>
       </c>
       <c r="D72" s="4">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="E72" s="4">
-        <v>5853</v>
-      </c>
-      <c r="F72" s="4">
-        <v>157</v>
-      </c>
-      <c r="G72" s="4">
         <v>4275</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>43928</v>
       </c>
       <c r="B73" s="5">
-        <v>550</v>
-      </c>
-      <c r="C73" s="4">
-        <v>10707</v>
+        <v>786</v>
+      </c>
+      <c r="C73" s="5">
+        <v>16796</v>
       </c>
       <c r="D73" s="4">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="E73" s="4">
-        <v>6089</v>
-      </c>
-      <c r="F73" s="4">
-        <v>131</v>
-      </c>
-      <c r="G73" s="4">
         <v>4406</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B75" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B76" s="1" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="3"/>
+      <c r="B75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$84</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -503,13 +503,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomRight" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1845,12 +1845,29 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="3"/>
-      <c r="B79" s="5" t="s">
+      <c r="A79" s="3">
+        <v>43934</v>
+      </c>
+      <c r="B79" s="5">
+        <v>1047</v>
+      </c>
+      <c r="C79" s="5">
+        <v>22005</v>
+      </c>
+      <c r="D79" s="4">
+        <v>195</v>
+      </c>
+      <c r="E79" s="4">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="3"/>
+      <c r="B80" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,9 +16,9 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$87</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -503,13 +503,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
+      <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1896,12 +1896,29 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="3"/>
-      <c r="B82" s="5" t="s">
+      <c r="A82" s="3">
+        <v>43937</v>
+      </c>
+      <c r="B82" s="5">
+        <v>716</v>
+      </c>
+      <c r="C82" s="5">
+        <v>24208</v>
+      </c>
+      <c r="D82" s="4">
+        <v>178</v>
+      </c>
+      <c r="E82" s="4">
+        <v>5548</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="3"/>
+      <c r="B83" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$88</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -135,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +146,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -174,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -195,6 +203,15 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,13 +520,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
+      <selection pane="bottomRight" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1913,12 +1930,29 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="3"/>
-      <c r="B83" s="5" t="s">
+      <c r="A83" s="3">
+        <v>43938</v>
+      </c>
+      <c r="B83" s="7">
+        <v>727</v>
+      </c>
+      <c r="C83" s="7">
+        <v>24935</v>
+      </c>
+      <c r="D83" s="9">
+        <v>117</v>
+      </c>
+      <c r="E83" s="8">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="3"/>
+      <c r="B84" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$89</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -520,13 +520,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1947,12 +1947,29 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="3"/>
-      <c r="B84" s="5" t="s">
+      <c r="A84" s="3">
+        <v>43939</v>
+      </c>
+      <c r="B84" s="7">
+        <v>522</v>
+      </c>
+      <c r="C84" s="7">
+        <v>25457</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0</v>
+      </c>
+      <c r="E84" s="8">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="3"/>
+      <c r="B85" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -520,13 +520,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1964,12 +1964,26 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3"/>
-      <c r="B85" s="5" t="s">
+      <c r="A85" s="3">
+        <v>43940</v>
+      </c>
+      <c r="B85" s="5">
+        <v>523</v>
+      </c>
+      <c r="C85" s="5">
+        <v>25980</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B86" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -104,28 +104,6 @@
   </si>
   <si>
     <t>※4/8より健康相談窓口と帰国者・接触者相談センターを統合</t>
-    <rPh sb="6" eb="8">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>マドグチ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>キコクシャ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>セッショクシャ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>トウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -520,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1981,7 +1959,24 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B86" s="7" t="s">
+      <c r="A86" s="3">
+        <v>43941</v>
+      </c>
+      <c r="B86" s="7">
+        <v>770</v>
+      </c>
+      <c r="C86" s="5">
+        <v>26750</v>
+      </c>
+      <c r="D86" s="8">
+        <v>210</v>
+      </c>
+      <c r="E86" s="8">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B87" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,9 +16,9 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$92</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1969,14 +1969,61 @@
         <v>26750</v>
       </c>
       <c r="D86" s="8">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="E86" s="8">
-        <v>5875</v>
+        <v>5894</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B87" s="5" t="s">
+      <c r="A87" s="3">
+        <v>43942</v>
+      </c>
+      <c r="B87" s="7">
+        <v>539</v>
+      </c>
+      <c r="C87" s="7">
+        <v>27289</v>
+      </c>
+      <c r="D87" s="8">
+        <v>174</v>
+      </c>
+      <c r="E87" s="8">
+        <v>6068</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="3">
+        <v>43943</v>
+      </c>
+      <c r="B88" s="7">
+        <v>531</v>
+      </c>
+      <c r="C88" s="7">
+        <v>27820</v>
+      </c>
+      <c r="D88" s="8">
+        <v>127</v>
+      </c>
+      <c r="E88" s="8">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
+        <v>43944</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7">
+        <v>27820</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B90" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,9 +16,9 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$93</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2013,17 +2013,28 @@
       <c r="A89" s="3">
         <v>43944</v>
       </c>
-      <c r="B89" s="7"/>
+      <c r="B89" s="7">
+        <v>561</v>
+      </c>
       <c r="C89" s="7">
-        <v>27820</v>
-      </c>
-      <c r="D89" s="8"/>
+        <v>28381</v>
+      </c>
+      <c r="D89" s="8">
+        <v>159</v>
+      </c>
       <c r="E89" s="8">
-        <v>6195</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B90" s="5" t="s">
+      <c r="A90" s="3"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B91" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$94</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D90" sqref="D90"/>
+      <selection pane="bottomRight" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2027,14 +2027,33 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="3"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
+      <c r="A90" s="3">
+        <v>43945</v>
+      </c>
+      <c r="B90" s="7">
+        <v>609</v>
+      </c>
+      <c r="C90" s="7">
+        <v>28990</v>
+      </c>
+      <c r="D90" s="8">
+        <v>104</v>
+      </c>
+      <c r="E90" s="8">
+        <v>6458</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B91" s="5" t="s">
+      <c r="A91" s="3">
+        <v>43946</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B92" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$95</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E93" sqref="E93"/>
+      <selection pane="bottomRight" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2047,13 +2047,30 @@
       <c r="A91" s="3">
         <v>43946</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
+      <c r="B91" s="7">
+        <v>524</v>
+      </c>
+      <c r="C91" s="7">
+        <v>29514</v>
+      </c>
+      <c r="D91" s="8">
+        <v>0</v>
+      </c>
+      <c r="E91" s="8">
+        <v>6458</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B92" s="5" t="s">
+      <c r="A92" s="3">
+        <v>43947</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B93" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$96</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B92" sqref="B92"/>
+      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2064,13 +2064,30 @@
       <c r="A92" s="3">
         <v>43947</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
+      <c r="B92" s="7">
+        <v>514</v>
+      </c>
+      <c r="C92" s="7">
+        <v>30028</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0</v>
+      </c>
+      <c r="E92" s="8">
+        <v>6458</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B93" s="5" t="s">
+      <c r="A93" s="3">
+        <v>43948</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B94" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -504,7 +504,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2081,10 +2081,18 @@
       <c r="A93" s="3">
         <v>43948</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
+      <c r="B93" s="7">
+        <v>690</v>
+      </c>
+      <c r="C93" s="7">
+        <v>30718</v>
+      </c>
+      <c r="D93" s="8">
+        <v>58</v>
+      </c>
+      <c r="E93" s="8">
+        <v>6516</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B94" s="5" t="s">

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$96</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$97</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
+      <selection pane="bottomRight" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2095,7 +2095,24 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B94" s="5" t="s">
+      <c r="A94" s="3">
+        <v>43949</v>
+      </c>
+      <c r="B94" s="7">
+        <v>396</v>
+      </c>
+      <c r="C94" s="7">
+        <v>31114</v>
+      </c>
+      <c r="D94" s="8">
+        <v>148</v>
+      </c>
+      <c r="E94" s="8">
+        <v>6664</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B95" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$97</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$98</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E96" sqref="E96"/>
+      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2112,7 +2112,24 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="3">
+        <v>43950</v>
+      </c>
+      <c r="B95" s="7">
+        <v>396</v>
+      </c>
+      <c r="C95" s="7">
+        <v>31510</v>
+      </c>
+      <c r="D95" s="8">
+        <v>0</v>
+      </c>
+      <c r="E95" s="8">
+        <v>6664</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B96" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$99</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomRight" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2129,7 +2129,24 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B96" s="5" t="s">
+      <c r="A96" s="3">
+        <v>43951</v>
+      </c>
+      <c r="B96" s="7">
+        <v>792</v>
+      </c>
+      <c r="C96" s="7">
+        <v>32302</v>
+      </c>
+      <c r="D96" s="8">
+        <v>185</v>
+      </c>
+      <c r="E96" s="8">
+        <v>6849</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -501,10 +501,10 @@
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D97" sqref="D97"/>
+      <selection pane="bottomRight" activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2133,10 +2133,10 @@
         <v>43951</v>
       </c>
       <c r="B96" s="7">
-        <v>792</v>
+        <v>519</v>
       </c>
       <c r="C96" s="7">
-        <v>32302</v>
+        <v>32029</v>
       </c>
       <c r="D96" s="8">
         <v>185</v>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G102" sqref="G102"/>
+      <selection pane="bottomRight" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2145,8 +2145,25 @@
         <v>6849</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B97" s="5" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="3">
+        <v>43952</v>
+      </c>
+      <c r="B97" s="7">
+        <v>407</v>
+      </c>
+      <c r="C97" s="7">
+        <v>32436</v>
+      </c>
+      <c r="D97" s="8">
+        <v>109</v>
+      </c>
+      <c r="E97" s="8">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B98" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$99</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$100</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E98" sqref="E98"/>
+      <selection pane="bottomRight" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2163,7 +2163,24 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B98" s="5" t="s">
+      <c r="A98" s="3">
+        <v>43953</v>
+      </c>
+      <c r="B98" s="7">
+        <v>292</v>
+      </c>
+      <c r="C98" s="7">
+        <v>32728</v>
+      </c>
+      <c r="D98" s="8">
+        <v>0</v>
+      </c>
+      <c r="E98" s="8">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B99" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$100</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$101</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C100" sqref="C100"/>
+      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2180,7 +2180,24 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B99" s="5" t="s">
+      <c r="A99" s="3">
+        <v>43954</v>
+      </c>
+      <c r="B99" s="7">
+        <v>308</v>
+      </c>
+      <c r="C99" s="7">
+        <v>33036</v>
+      </c>
+      <c r="D99" s="8">
+        <v>0</v>
+      </c>
+      <c r="E99" s="8">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B100" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$102</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2197,7 +2197,25 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B100" s="5" t="s">
+      <c r="A100" s="3">
+        <v>43955</v>
+      </c>
+      <c r="B100" s="7">
+        <v>428</v>
+      </c>
+      <c r="C100" s="7">
+        <v>33464</v>
+      </c>
+      <c r="D100" s="8">
+        <v>0</v>
+      </c>
+      <c r="E100" s="8">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="3"/>
+      <c r="B101" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$102</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$103</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2214,8 +2214,25 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="3"/>
-      <c r="B101" s="5" t="s">
+      <c r="A101" s="3">
+        <v>43956</v>
+      </c>
+      <c r="B101" s="7">
+        <v>321</v>
+      </c>
+      <c r="C101" s="7">
+        <v>33785</v>
+      </c>
+      <c r="D101" s="8">
+        <v>0</v>
+      </c>
+      <c r="E101" s="8">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="3"/>
+      <c r="B102" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$104</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomRight" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2231,8 +2231,25 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="3"/>
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="3">
+        <v>43957</v>
+      </c>
+      <c r="B102" s="7">
+        <v>455</v>
+      </c>
+      <c r="C102" s="7">
+        <v>34240</v>
+      </c>
+      <c r="D102" s="8">
+        <v>0</v>
+      </c>
+      <c r="E102" s="8">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="3"/>
+      <c r="B103" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$104</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$105</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C103" sqref="C103"/>
+      <selection pane="bottomRight" activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2248,8 +2248,25 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="3"/>
-      <c r="B103" s="5" t="s">
+      <c r="A103" s="3">
+        <v>43958</v>
+      </c>
+      <c r="B103" s="7">
+        <v>463</v>
+      </c>
+      <c r="C103" s="7">
+        <v>34703</v>
+      </c>
+      <c r="D103" s="8">
+        <v>77</v>
+      </c>
+      <c r="E103" s="8">
+        <v>7035</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="3"/>
+      <c r="B104" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$106</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A103" sqref="A103"/>
+      <selection pane="bottomRight" activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2265,8 +2265,25 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="3"/>
-      <c r="B104" s="5" t="s">
+      <c r="A104" s="3">
+        <v>43959</v>
+      </c>
+      <c r="B104" s="7">
+        <v>304</v>
+      </c>
+      <c r="C104" s="7">
+        <v>35007</v>
+      </c>
+      <c r="D104" s="8">
+        <v>99</v>
+      </c>
+      <c r="E104" s="8">
+        <v>7134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="3"/>
+      <c r="B105" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$106</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$107</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A104" sqref="A104"/>
+      <selection pane="bottomRight" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2282,8 +2282,25 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="3"/>
-      <c r="B105" s="5" t="s">
+      <c r="A105" s="3">
+        <v>43960</v>
+      </c>
+      <c r="B105" s="7">
+        <v>378</v>
+      </c>
+      <c r="C105" s="7">
+        <v>35385</v>
+      </c>
+      <c r="D105" s="8">
+        <v>98</v>
+      </c>
+      <c r="E105" s="8">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="3"/>
+      <c r="B106" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$107</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$108</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E106" sqref="E106"/>
+      <selection pane="bottomRight" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2299,8 +2299,25 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" s="3"/>
-      <c r="B106" s="5" t="s">
+      <c r="A106" s="3">
+        <v>43961</v>
+      </c>
+      <c r="B106" s="7">
+        <v>394</v>
+      </c>
+      <c r="C106" s="7">
+        <v>35779</v>
+      </c>
+      <c r="D106" s="8">
+        <v>0</v>
+      </c>
+      <c r="E106" s="8">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="3"/>
+      <c r="B107" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$110</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$111</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E109" sqref="E109"/>
+      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2350,8 +2350,25 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" s="3"/>
-      <c r="B109" s="5" t="s">
+      <c r="A109" s="3">
+        <v>43964</v>
+      </c>
+      <c r="B109" s="7">
+        <v>297</v>
+      </c>
+      <c r="C109" s="7">
+        <v>36845</v>
+      </c>
+      <c r="D109" s="8">
+        <v>51</v>
+      </c>
+      <c r="E109" s="8">
+        <v>7488</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="3"/>
+      <c r="B110" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$111</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$112</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
+      <selection pane="bottomRight" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2367,8 +2367,25 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="3"/>
-      <c r="B110" s="5" t="s">
+      <c r="A110" s="3">
+        <v>43965</v>
+      </c>
+      <c r="B110" s="7">
+        <v>229</v>
+      </c>
+      <c r="C110" s="7">
+        <v>37074</v>
+      </c>
+      <c r="D110" s="8">
+        <v>42</v>
+      </c>
+      <c r="E110" s="8">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="3"/>
+      <c r="B111" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$112</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$113</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A111" sqref="A111"/>
+      <selection pane="bottomRight" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2384,8 +2384,25 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" s="3"/>
-      <c r="B111" s="5" t="s">
+      <c r="A111" s="3">
+        <v>43966</v>
+      </c>
+      <c r="B111" s="7">
+        <v>216</v>
+      </c>
+      <c r="C111" s="7">
+        <v>37290</v>
+      </c>
+      <c r="D111" s="8">
+        <v>54</v>
+      </c>
+      <c r="E111" s="8">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="3"/>
+      <c r="B112" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$113</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$114</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E109" sqref="E109"/>
+      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2401,8 +2401,25 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" s="3"/>
-      <c r="B112" s="5" t="s">
+      <c r="A112" s="3">
+        <v>43967</v>
+      </c>
+      <c r="B112" s="7">
+        <v>191</v>
+      </c>
+      <c r="C112" s="7">
+        <v>37481</v>
+      </c>
+      <c r="D112" s="8">
+        <v>0</v>
+      </c>
+      <c r="E112" s="8">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="3"/>
+      <c r="B113" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_組織\平成31年度\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_局室区\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$115</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomRight" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2417,9 +2417,26 @@
         <v>7584</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="3"/>
-      <c r="B113" s="5" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="3">
+        <v>43968</v>
+      </c>
+      <c r="B113" s="7">
+        <v>197</v>
+      </c>
+      <c r="C113" s="7">
+        <v>37678</v>
+      </c>
+      <c r="D113" s="8">
+        <v>0</v>
+      </c>
+      <c r="E113" s="8">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="3"/>
+      <c r="B114" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A113" sqref="A113"/>
+      <selection pane="bottomRight" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2435,8 +2435,25 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" s="3"/>
-      <c r="B114" s="5" t="s">
+      <c r="A114" s="3">
+        <v>43969</v>
+      </c>
+      <c r="B114" s="7">
+        <v>287</v>
+      </c>
+      <c r="C114" s="7">
+        <v>37965</v>
+      </c>
+      <c r="D114" s="8">
+        <v>58</v>
+      </c>
+      <c r="E114" s="8">
+        <v>7642</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="3"/>
+      <c r="B115" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$115</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$116</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B115" sqref="B115"/>
+      <selection pane="bottomRight" activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2452,8 +2452,25 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A115" s="3"/>
-      <c r="B115" s="5" t="s">
+      <c r="A115" s="3">
+        <v>43970</v>
+      </c>
+      <c r="B115" s="7">
+        <v>206</v>
+      </c>
+      <c r="C115" s="7">
+        <v>38171</v>
+      </c>
+      <c r="D115" s="8">
+        <v>40</v>
+      </c>
+      <c r="E115" s="8">
+        <v>7682</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="3"/>
+      <c r="B116" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$116</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$117</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D113" sqref="D113"/>
+      <selection pane="bottomRight" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2469,8 +2469,25 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A116" s="3"/>
-      <c r="B116" s="5" t="s">
+      <c r="A116" s="3">
+        <v>43971</v>
+      </c>
+      <c r="B116" s="7">
+        <v>175</v>
+      </c>
+      <c r="C116" s="7">
+        <v>38346</v>
+      </c>
+      <c r="D116" s="8">
+        <v>46</v>
+      </c>
+      <c r="E116" s="8">
+        <v>7728</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="3"/>
+      <c r="B117" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$117</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$118</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B117" sqref="B117"/>
+      <selection pane="bottomRight" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2486,8 +2486,25 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A117" s="3"/>
-      <c r="B117" s="5" t="s">
+      <c r="A117" s="3">
+        <v>43972</v>
+      </c>
+      <c r="B117" s="7">
+        <v>119</v>
+      </c>
+      <c r="C117" s="7">
+        <v>38465</v>
+      </c>
+      <c r="D117" s="8">
+        <v>36</v>
+      </c>
+      <c r="E117" s="8">
+        <v>7764</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="3"/>
+      <c r="B118" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$118</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$119</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B118" sqref="B118"/>
+      <selection pane="bottomRight" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2503,8 +2503,25 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A118" s="3"/>
-      <c r="B118" s="5" t="s">
+      <c r="A118" s="3">
+        <v>43973</v>
+      </c>
+      <c r="B118" s="7">
+        <v>136</v>
+      </c>
+      <c r="C118" s="7">
+        <v>38601</v>
+      </c>
+      <c r="D118" s="8">
+        <v>37</v>
+      </c>
+      <c r="E118" s="8">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" s="3"/>
+      <c r="B119" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sodan.xlsx
+++ b/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$119</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$120</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B119" sqref="B119"/>
+      <selection pane="bottomRight" activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2520,8 +2520,25 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" s="3"/>
-      <c r="B119" s="5" t="s">
+      <c r="A119" s="3">
+        <v>43974</v>
+      </c>
+      <c r="B119" s="7">
+        <v>134</v>
+      </c>
+      <c r="C119" s="7">
+        <v>38735</v>
+      </c>
+      <c r="D119" s="8">
+        <v>0</v>
+      </c>
+      <c r="E119" s="8">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" s="3"/>
+      <c r="B120" s="5" t="s">
         <v>4</v>
       </c>
     </row>
